--- a/excel_file/input.xlsx
+++ b/excel_file/input.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14D5112-656B-4420-87A9-851E5012751D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517FB9D7-275C-4532-9DA5-D7B7ABE3511E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DefaultCurrencyAndRate" sheetId="1" r:id="rId1"/>
     <sheet name="CurrencyList" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -765,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0CC455-BF3B-4661-96CD-2E1FDB76E356}">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,4 +943,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F9A1D2-F2BB-432D-A699-C0089CD23E1F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel_file/input.xlsx
+++ b/excel_file/input.xlsx
@@ -3,14 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517FB9D7-275C-4532-9DA5-D7B7ABE3511E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242CD972-CC50-41AC-985E-D42F29B0AAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DefaultCurrencyAndRate" sheetId="1" r:id="rId1"/>
     <sheet name="CurrencyList" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -766,7 +765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0CC455-BF3B-4661-96CD-2E1FDB76E356}">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -943,16 +942,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F9A1D2-F2BB-432D-A699-C0089CD23E1F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>